--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mFBM\FMFI\Rko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mFBM\FMFI\Rko\RSkuska\RSkuska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD98BD21-D676-428B-8C7D-134FD971F5C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3A46E5C-204C-486A-A4AE-85B7FBF8E14B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$1000</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
@@ -34,26 +37,26 @@
     <t>M</t>
   </si>
   <si>
-    <t>EF/% MR</t>
+    <t>LK_cm_MR</t>
   </si>
   <si>
-    <t>EF/% ECHO</t>
+    <t>LK_cm_ECHO</t>
   </si>
   <si>
-    <t>Ž</t>
+    <t>EF_MR</t>
   </si>
   <si>
-    <t>LK/cm MR</t>
+    <t>EF_ECHO</t>
   </si>
   <si>
-    <t>LK/cm ECHO</t>
+    <t>Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,6 +93,12 @@
       <color rgb="FF333333"/>
       <name val="Rambla"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +153,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -486,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -519,8 +531,8 @@
       <c r="B2" s="4">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="3">
         <v>4.2</v>
@@ -704,8 +716,8 @@
       <c r="B7" s="4">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D7" s="7">
         <v>5.3</v>
@@ -747,8 +759,8 @@
       <c r="B8" s="4">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="7">
         <v>5</v>
@@ -1028,8 +1040,8 @@
       <c r="B15" s="4">
         <v>22</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -1114,8 +1126,8 @@
       <c r="B17" s="4">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>4.5</v>
@@ -1186,8 +1198,8 @@
       <c r="B19" s="4">
         <v>12</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -1366,8 +1378,8 @@
       <c r="B24" s="4">
         <v>45</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
+      <c r="C24" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D24" s="3">
         <v>4.5999999999999996</v>
@@ -1690,8 +1702,8 @@
       <c r="B33" s="4">
         <v>18</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
+      <c r="C33" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D33" s="3">
         <v>4.4000000000000004</v>
@@ -1798,8 +1810,8 @@
       <c r="B36" s="4">
         <v>26</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>6</v>
+      <c r="C36" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -1906,8 +1918,8 @@
       <c r="B39" s="4">
         <v>33</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>6</v>
+      <c r="C39" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D39" s="3">
         <v>4.8</v>
@@ -1942,8 +1954,8 @@
       <c r="B40" s="4">
         <v>37</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>6</v>
+      <c r="C40" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D40" s="3">
         <v>4.5</v>
@@ -1978,8 +1990,8 @@
       <c r="B41" s="4">
         <v>55</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>6</v>
+      <c r="C41" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D41" s="3">
         <v>5.0999999999999996</v>
@@ -2014,8 +2026,8 @@
       <c r="B42" s="4">
         <v>27</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>6</v>
+      <c r="C42" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D42" s="3">
         <v>5.2</v>
@@ -2050,8 +2062,8 @@
       <c r="B43" s="4">
         <v>46</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>6</v>
+      <c r="C43" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D43" s="3">
         <v>4.9000000000000004</v>
@@ -2122,8 +2134,8 @@
       <c r="B45" s="4">
         <v>34</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>6</v>
+      <c r="C45" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D45" s="7">
         <v>4.5</v>
@@ -2194,8 +2206,8 @@
       <c r="B47" s="4">
         <v>34</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>6</v>
+      <c r="C47" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D47" s="7">
         <v>5.5</v>
@@ -2230,8 +2242,8 @@
       <c r="B48" s="4">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>6</v>
+      <c r="C48" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -2302,8 +2314,8 @@
       <c r="B50" s="4">
         <v>16</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>6</v>
+      <c r="C50" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D50" s="3">
         <v>6</v>
@@ -2590,8 +2602,8 @@
       <c r="B58" s="4">
         <v>50</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>6</v>
+      <c r="C58" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D58" s="3">
         <v>4.5</v>
@@ -2662,8 +2674,8 @@
       <c r="B60" s="4">
         <v>22</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>6</v>
+      <c r="C60" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="D60" s="3">
         <v>3.9</v>
@@ -3849,6 +3861,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:AA1000" xr:uid="{3BDEE6A0-C937-4292-8D28-178F7594C5D5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
